--- a/Risk & Return and Efficient Diversification/Risk & Return and Efficient Diversification.xlsx
+++ b/Risk & Return and Efficient Diversification/Risk & Return and Efficient Diversification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D86BE6C-2065-472F-B3B6-EE325EEE9F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A96A2C-062E-4D9B-A075-87A1D788EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risk &amp; Return basic" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Asset Allocation w Rf'!$B$2:$G$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Risk &amp; Return basic'!$B$1:$D$5</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Asset Allocation w RAs'!$B$27</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Asset Allocation w Rf'!$B$30</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Asset Allocation w Rf'!$B$27</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Capital Allocation'!$C$10</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
@@ -67,7 +67,7 @@
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Asset Allocation w RAs'!$E$27</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Asset Allocation w Rf'!$F$30</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Asset Allocation w Rf'!$E$27</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Capital Allocation'!$C$15</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
@@ -884,7 +884,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1237,6 +1237,30 @@
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,33 +1281,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8342,23 +8339,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>264999</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>912813</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>115664</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>853711</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409937</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D82C462-4F79-BD74-56A5-82B1EBB7A4A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A5DEA9-16FE-ADAC-4079-73C5A9C82E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8374,8 +8371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="471374" y="6624414"/>
-          <a:ext cx="3271587" cy="3956274"/>
+          <a:off x="4674585" y="6815439"/>
+          <a:ext cx="6538390" cy="3940416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8386,23 +8383,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>912813</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>237963</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>105337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254331</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>77978</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825580</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A5DEA9-16FE-ADAC-4079-73C5A9C82E2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2AC2B3-AE9B-4966-4E25-7A328575A758}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8418,8 +8415,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4683126" y="6635750"/>
-          <a:ext cx="6413830" cy="3721291"/>
+          <a:off x="442931" y="6796951"/>
+          <a:ext cx="4150771" cy="3990724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8546,22 +8543,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>109226</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>27816</xdr:rowOff>
+      <xdr:colOff>449659</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>273403</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>116287</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>871403</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>193476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CAD911-91C6-BFCA-0F49-85B8E393A27D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF30E505-F278-EEAE-3FEA-084FE7B7ACF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8577,8 +8574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276795" y="6351358"/>
-          <a:ext cx="3762511" cy="5133193"/>
+          <a:off x="628253" y="6756796"/>
+          <a:ext cx="5779556" cy="5551289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8594,16 +8591,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>40930</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7216</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170129</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>425739</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16923</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578913</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8697,22 +8694,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>212495</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130781</xdr:rowOff>
+      <xdr:colOff>106446</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>94248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380718</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1433</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2D92D1-680E-24E5-A43C-5435F809168A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7D9D8-CB8D-C1FB-3356-FC72F6302E0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8728,8 +8725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7710380" y="2255589"/>
-          <a:ext cx="2789633" cy="3973729"/>
+          <a:off x="7786604" y="5859380"/>
+          <a:ext cx="3262396" cy="3090797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8741,22 +8738,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>214494</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>40705</xdr:rowOff>
+      <xdr:colOff>96101</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>65125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>391175</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>81411</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44763</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>117432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC660E5-DFAF-CE0C-63F8-6692E96CC97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74068335-38F7-AE8F-2346-137B30243B3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8772,8 +8769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7712379" y="6268590"/>
-          <a:ext cx="2798091" cy="3989103"/>
+          <a:off x="7781341" y="2583378"/>
+          <a:ext cx="3187727" cy="2988095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9162,7 +9159,7 @@
   </sheetPr>
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -9702,8 +9699,8 @@
   </sheetPr>
   <dimension ref="A2:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="91" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
@@ -10146,8 +10143,8 @@
   </sheetPr>
   <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
@@ -10217,21 +10214,21 @@
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="59"/>
-      <c r="E8" s="126">
+      <c r="E8" s="134">
         <v>0.3</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="60"/>
-      <c r="E9" s="127">
+      <c r="E9" s="135">
         <f>E7*F7*E8</f>
         <v>72</v>
       </c>
-      <c r="F9" s="127"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
@@ -10249,12 +10246,12 @@
         <v>22</v>
       </c>
       <c r="D11" s="63"/>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
@@ -10285,12 +10282,12 @@
       <c r="D13" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="64">
@@ -10299,23 +10296,23 @@
       <c r="C14" s="64">
         <v>1</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="122">
         <f>B14*$E$6+C14*$F$6</f>
         <v>13</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="123">
         <f>SQRT($B14^2*$E$7^2+$C14^2*$F$7^2+2*$E$7*$F$7*E$12*$B14*$C14)</f>
         <v>20</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="124">
         <f t="shared" ref="F14:H14" si="0">SQRT($B14^2*$E$7^2+$C14^2*$F$7^2+2*$E$7*$F$7*F$12*$B14*$C14)</f>
         <v>20</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="124">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="131">
+      <c r="H14" s="124">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10331,7 +10328,7 @@
         <f t="shared" ref="D15:D24" si="1">B15*$E$6+C15*$F$6</f>
         <v>12.500000000000002</v>
       </c>
-      <c r="E15" s="132">
+      <c r="E15" s="125">
         <f t="shared" ref="E15:H24" si="2">SQRT($B15^2*$E$7^2+$C15^2*$F$7^2+2*$E$7*$F$7*E$12*$B15*$C15)</f>
         <v>16.8</v>
       </c>
@@ -10359,7 +10356,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E16" s="125">
         <f t="shared" si="2"/>
         <v>13.600000000000001</v>
       </c>
@@ -10387,7 +10384,7 @@
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="125">
         <f t="shared" si="2"/>
         <v>10.399999999999999</v>
       </c>
@@ -10415,7 +10412,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E18" s="132">
+      <c r="E18" s="125">
         <f t="shared" si="2"/>
         <v>7.200000000000002</v>
       </c>
@@ -10443,7 +10440,7 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="E19" s="132">
+      <c r="E19" s="125">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10471,7 +10468,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E20" s="132">
+      <c r="E20" s="125">
         <f t="shared" si="2"/>
         <v>0.80000000000000038</v>
       </c>
@@ -10499,7 +10496,7 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="E21" s="132">
+      <c r="E21" s="125">
         <f t="shared" si="2"/>
         <v>2.3999999999999981</v>
       </c>
@@ -10527,7 +10524,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E22" s="132">
+      <c r="E22" s="125">
         <f t="shared" si="2"/>
         <v>5.6000000000000014</v>
       </c>
@@ -10555,7 +10552,7 @@
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="E23" s="132">
+      <c r="E23" s="125">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
@@ -10601,11 +10598,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="41">
         <v>-1</v>
       </c>
@@ -10629,12 +10626,12 @@
       <c r="D26" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
       <c r="J26" s="77"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -10754,8 +10751,8 @@
   </sheetPr>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
@@ -10914,15 +10911,15 @@
       <c r="C14" s="91">
         <v>0</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="126">
         <f>$B14*C$7+$C14*C$8</f>
         <v>0.08</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="82">
         <f>(B14^2*$D$7^2+C14^2*$D$8^2+2*B14*C14*$F$7)^0.5</f>
         <v>0.12</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="127">
         <f>(D14-$C$9)/E14</f>
         <v>0.25</v>
       </c>
@@ -10934,15 +10931,15 @@
       <c r="C15" s="91">
         <v>0.1</v>
       </c>
-      <c r="D15" s="135">
-        <f t="shared" ref="D15:E24" si="0">$B15*C$7+$C15*C$8</f>
+      <c r="D15" s="128">
+        <f t="shared" ref="D15:D24" si="0">$B15*C$7+$C15*C$8</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E15" s="136">
+      <c r="E15" s="82">
         <f t="shared" ref="E15:E24" si="1">(B15^2*$D$7^2+C15^2*$D$8^2+2*B15*C15*$F$7)^0.5</f>
         <v>0.11558546621439912</v>
       </c>
-      <c r="F15" s="136">
+      <c r="F15" s="82">
         <f t="shared" ref="F15:F24" si="2">(D15-$C$9)/E15</f>
         <v>0.3028062363401175</v>
       </c>
@@ -10954,15 +10951,15 @@
       <c r="C16" s="91">
         <v>0.2</v>
       </c>
-      <c r="D16" s="135">
+      <c r="D16" s="128">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="E16" s="136">
+      <c r="E16" s="82">
         <f t="shared" si="1"/>
         <v>0.11454256850621083</v>
       </c>
-      <c r="F16" s="136">
+      <c r="F16" s="82">
         <f t="shared" si="2"/>
         <v>0.34921514788478902</v>
       </c>
@@ -10974,15 +10971,15 @@
       <c r="C17" s="91">
         <v>0.3</v>
       </c>
-      <c r="D17" s="135">
+      <c r="D17" s="128">
         <f t="shared" si="0"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E17" s="136">
+      <c r="E17" s="82">
         <f t="shared" si="1"/>
         <v>0.11696153213770756</v>
       </c>
-      <c r="F17" s="136">
+      <c r="F17" s="82">
         <f t="shared" si="2"/>
         <v>0.38474188203193277</v>
       </c>
@@ -10994,15 +10991,15 @@
       <c r="C18" s="91">
         <v>0.4</v>
       </c>
-      <c r="D18" s="135">
+      <c r="D18" s="128">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E18" s="136">
+      <c r="E18" s="82">
         <f t="shared" si="1"/>
         <v>0.12263767773404714</v>
       </c>
-      <c r="F18" s="136">
+      <c r="F18" s="82">
         <f t="shared" si="2"/>
         <v>0.40770504565840138</v>
       </c>
@@ -11014,15 +11011,15 @@
       <c r="C19" s="91">
         <v>0.5</v>
       </c>
-      <c r="D19" s="135">
+      <c r="D19" s="128">
         <f t="shared" si="0"/>
         <v>0.10500000000000001</v>
       </c>
-      <c r="E19" s="136">
+      <c r="E19" s="82">
         <f t="shared" si="1"/>
         <v>0.13114877048604001</v>
       </c>
-      <c r="F19" s="136">
+      <c r="F19" s="82">
         <f t="shared" si="2"/>
         <v>0.41937106841466287</v>
       </c>
@@ -11034,15 +11031,15 @@
       <c r="C20" s="91">
         <v>0.6</v>
       </c>
-      <c r="D20" s="135">
+      <c r="D20" s="128">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="E20" s="136">
+      <c r="E20" s="82">
         <f t="shared" si="1"/>
         <v>0.14198591479439079</v>
       </c>
-      <c r="F20" s="136">
+      <c r="F20" s="82">
         <f t="shared" si="2"/>
         <v>0.42257712736425823</v>
       </c>
@@ -11054,15 +11051,15 @@
       <c r="C21" s="91">
         <v>0.7</v>
       </c>
-      <c r="D21" s="135">
+      <c r="D21" s="128">
         <f t="shared" si="0"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="E21" s="136">
+      <c r="E21" s="82">
         <f t="shared" si="1"/>
         <v>0.15466091943344965</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="82">
         <f t="shared" si="2"/>
         <v>0.42027423759089566</v>
       </c>
@@ -11074,15 +11071,15 @@
       <c r="C22" s="91">
         <v>0.8</v>
       </c>
-      <c r="D22" s="135">
+      <c r="D22" s="128">
         <f t="shared" si="0"/>
         <v>0.12000000000000001</v>
       </c>
-      <c r="E22" s="136">
+      <c r="E22" s="82">
         <f t="shared" si="1"/>
         <v>0.16876018487783193</v>
       </c>
-      <c r="F22" s="136">
+      <c r="F22" s="82">
         <f t="shared" si="2"/>
         <v>0.41478978024748003</v>
       </c>
@@ -11094,15 +11091,15 @@
       <c r="C23" s="91">
         <v>0.9</v>
       </c>
-      <c r="D23" s="135">
+      <c r="D23" s="128">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E23" s="136">
+      <c r="E23" s="82">
         <f t="shared" si="1"/>
         <v>0.18395651660107071</v>
       </c>
-      <c r="F23" s="136">
+      <c r="F23" s="82">
         <f t="shared" si="2"/>
         <v>0.40770504565840132</v>
       </c>
@@ -11114,7 +11111,7 @@
       <c r="C24" s="92">
         <v>1</v>
       </c>
-      <c r="D24" s="137">
+      <c r="D24" s="129">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
